--- a/Ligas/Liga_noruega_2025.xlsx
+++ b/Ligas/Liga_noruega_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S112"/>
+  <dimension ref="A1:S120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8003,6 +8003,574 @@
         </is>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Sarpsborg 08 FF</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Rosenborg</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>2</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1342294</v>
+      </c>
+      <c r="G113" t="n">
+        <v>4</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2</v>
+      </c>
+      <c r="J113" t="n">
+        <v>5</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>2</v>
+      </c>
+      <c r="P113" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>KFUM Oslo</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>2</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1342291</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4</v>
+      </c>
+      <c r="H114" t="n">
+        <v>11</v>
+      </c>
+      <c r="I114" t="n">
+        <v>2</v>
+      </c>
+      <c r="J114" t="n">
+        <v>5</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>2</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Molde</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Stromsgodset</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>4</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1342292</v>
+      </c>
+      <c r="G115" t="n">
+        <v>6</v>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+      <c r="I115" t="n">
+        <v>2</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>4</v>
+      </c>
+      <c r="P115" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>62%</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>38%</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Viking</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Bodo/Glimt</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1342296</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4</v>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>2</v>
+      </c>
+      <c r="P116" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Valerenga</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>3</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1342297</v>
+      </c>
+      <c r="G117" t="n">
+        <v>10</v>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>3</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>3</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>51%</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Tromso</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Bryne</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>3</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1342295</v>
+      </c>
+      <c r="G118" t="n">
+        <v>5</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>3</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>3</v>
+      </c>
+      <c r="P118" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Sandefjord</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Kristiansund BK</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>6</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1342293</v>
+      </c>
+      <c r="G119" t="n">
+        <v>6</v>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>6</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Ham-Kam</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1342290</v>
+      </c>
+      <c r="G120" t="n">
+        <v>9</v>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1</v>
+      </c>
+      <c r="P120" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Ligas/Liga_noruega_2025.xlsx
+++ b/Ligas/Liga_noruega_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U135"/>
+  <dimension ref="A1:Y140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,26 @@
           <t>Posesión Visita ().1</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Local (%)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Visita (%)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>fuente_tiempos</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>estado_datos</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -608,6 +628,10 @@
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -677,6 +701,10 @@
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -746,6 +774,10 @@
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -815,6 +847,10 @@
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -884,6 +920,10 @@
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -953,6 +993,10 @@
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1022,6 +1066,10 @@
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1091,6 +1139,10 @@
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1160,6 +1212,10 @@
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1229,6 +1285,10 @@
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1298,6 +1358,10 @@
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1367,6 +1431,10 @@
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1436,6 +1504,10 @@
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1505,6 +1577,10 @@
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1574,6 +1650,10 @@
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1643,6 +1723,10 @@
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1712,6 +1796,10 @@
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1781,6 +1869,10 @@
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1850,6 +1942,10 @@
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1919,6 +2015,10 @@
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1988,6 +2088,10 @@
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2057,6 +2161,10 @@
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2126,6 +2234,10 @@
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2195,6 +2307,10 @@
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2264,6 +2380,10 @@
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2333,6 +2453,10 @@
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2402,6 +2526,10 @@
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2471,6 +2599,10 @@
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2540,6 +2672,10 @@
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2609,6 +2745,10 @@
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2678,6 +2818,10 @@
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2747,6 +2891,10 @@
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2816,6 +2964,10 @@
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2885,6 +3037,10 @@
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2954,6 +3110,10 @@
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3023,6 +3183,10 @@
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3092,6 +3256,10 @@
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3161,6 +3329,10 @@
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3230,6 +3402,10 @@
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3299,6 +3475,10 @@
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3368,6 +3548,10 @@
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3437,6 +3621,10 @@
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3506,6 +3694,10 @@
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3575,6 +3767,10 @@
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3644,6 +3840,10 @@
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3713,6 +3913,10 @@
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3782,6 +3986,10 @@
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3851,6 +4059,10 @@
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3920,6 +4132,10 @@
       </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3989,6 +4205,10 @@
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4058,6 +4278,10 @@
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4127,6 +4351,10 @@
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4196,6 +4424,10 @@
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4265,6 +4497,10 @@
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4334,6 +4570,10 @@
       </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4403,6 +4643,10 @@
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4472,6 +4716,10 @@
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4541,6 +4789,10 @@
       </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4610,6 +4862,10 @@
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4679,6 +4935,10 @@
       </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4748,6 +5008,10 @@
       </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4817,6 +5081,10 @@
       </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4886,6 +5154,10 @@
       </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4955,6 +5227,10 @@
       </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5024,6 +5300,10 @@
       </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5093,6 +5373,10 @@
       </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5162,6 +5446,10 @@
       </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5231,6 +5519,10 @@
       </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5300,6 +5592,10 @@
       </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5369,6 +5665,10 @@
       </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5438,6 +5738,10 @@
       </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5507,6 +5811,10 @@
       </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5576,6 +5884,10 @@
       </c>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5645,6 +5957,10 @@
       </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5714,6 +6030,10 @@
       </c>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5783,6 +6103,10 @@
       </c>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5852,6 +6176,10 @@
       </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5921,6 +6249,10 @@
       </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5990,6 +6322,10 @@
       </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6059,6 +6395,10 @@
       </c>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6128,6 +6468,10 @@
       </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6197,6 +6541,10 @@
       </c>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6266,6 +6614,10 @@
       </c>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6335,6 +6687,10 @@
       </c>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6404,6 +6760,10 @@
       </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6473,6 +6833,10 @@
       </c>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6542,6 +6906,10 @@
       </c>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6611,6 +6979,10 @@
       </c>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6680,6 +7052,10 @@
       </c>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6749,6 +7125,10 @@
       </c>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6818,6 +7198,10 @@
       </c>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6887,6 +7271,10 @@
       </c>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6956,6 +7344,10 @@
       </c>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7025,6 +7417,10 @@
       </c>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7057,12 +7453,8 @@
       <c r="H96" t="n">
         <v>8</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
         <v>0</v>
       </c>
@@ -7070,13 +7462,13 @@
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P96" t="n">
         <v>1</v>
@@ -7094,6 +7486,10 @@
       </c>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7126,12 +7522,8 @@
       <c r="H97" t="n">
         <v>2</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
         <v>0</v>
       </c>
@@ -7139,13 +7531,13 @@
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P97" t="n">
         <v>0</v>
@@ -7163,6 +7555,10 @@
       </c>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7208,16 +7604,16 @@
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98" t="n">
         <v>56</v>
@@ -7232,6 +7628,10 @@
       </c>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7280,13 +7680,13 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O99" t="n">
         <v>1</v>
       </c>
       <c r="P99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99" t="n">
         <v>41</v>
@@ -7301,6 +7701,10 @@
       </c>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7370,6 +7774,10 @@
       </c>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7415,22 +7823,22 @@
         <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P101" t="n">
         <v>0</v>
       </c>
       <c r="Q101" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R101" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -7439,6 +7847,10 @@
       </c>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7487,13 +7899,13 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O102" t="n">
         <v>3</v>
       </c>
       <c r="P102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102" t="n">
         <v>61</v>
@@ -7508,6 +7920,10 @@
       </c>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7577,6 +7993,10 @@
       </c>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7646,6 +8066,10 @@
       </c>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7694,13 +8118,13 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O105" t="n">
         <v>4</v>
       </c>
       <c r="P105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q105" t="n">
         <v>43</v>
@@ -7715,6 +8139,10 @@
       </c>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7784,6 +8212,10 @@
       </c>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7853,6 +8285,10 @@
       </c>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7898,16 +8334,16 @@
         <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q108" t="n">
         <v>42</v>
@@ -7922,6 +8358,10 @@
       </c>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7970,13 +8410,13 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
       </c>
       <c r="P109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q109" t="n">
         <v>54</v>
@@ -7991,6 +8431,10 @@
       </c>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8036,13 +8480,13 @@
         <v>0</v>
       </c>
       <c r="M110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N110" t="n">
         <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P110" t="n">
         <v>0</v>
@@ -8060,6 +8504,10 @@
       </c>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8105,13 +8553,13 @@
         <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N111" t="n">
         <v>0</v>
       </c>
       <c r="O111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P111" t="n">
         <v>1</v>
@@ -8129,6 +8577,10 @@
       </c>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8198,6 +8650,10 @@
       </c>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8243,16 +8699,16 @@
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q113" t="n">
         <v>52</v>
@@ -8267,6 +8723,10 @@
       </c>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8312,13 +8772,13 @@
         <v>1</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N114" t="n">
         <v>0</v>
       </c>
       <c r="O114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P114" t="n">
         <v>0</v>
@@ -8336,6 +8796,10 @@
       </c>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8381,16 +8845,16 @@
         <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O115" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q115" t="n">
         <v>62</v>
@@ -8405,6 +8869,10 @@
       </c>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8450,16 +8918,16 @@
         <v>0</v>
       </c>
       <c r="M116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N116" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P116" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q116" t="n">
         <v>36</v>
@@ -8474,6 +8942,10 @@
       </c>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8543,6 +9015,10 @@
       </c>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8588,13 +9064,13 @@
         <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N118" t="n">
         <v>0</v>
       </c>
       <c r="O118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P118" t="n">
         <v>1</v>
@@ -8612,6 +9088,10 @@
       </c>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8657,13 +9137,13 @@
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N119" t="n">
         <v>0</v>
       </c>
       <c r="O119" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P119" t="n">
         <v>0</v>
@@ -8681,6 +9161,10 @@
       </c>
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8726,13 +9210,13 @@
         <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N120" t="n">
         <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P120" t="n">
         <v>1</v>
@@ -8750,6 +9234,10 @@
       </c>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8795,16 +9283,16 @@
         <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q121" t="n">
         <v>56</v>
@@ -8819,6 +9307,10 @@
       </c>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8867,13 +9359,13 @@
         <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O122" t="n">
         <v>0</v>
       </c>
       <c r="P122" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q122" t="n">
         <v>55</v>
@@ -8888,6 +9380,10 @@
       </c>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8920,12 +9416,8 @@
       <c r="H123" t="n">
         <v>8</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
         <v>0</v>
       </c>
@@ -8936,13 +9428,13 @@
         <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O123" t="n">
         <v>0</v>
       </c>
       <c r="P123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q123" t="n">
         <v>49</v>
@@ -8957,6 +9449,10 @@
       </c>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -9002,13 +9498,13 @@
         <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N124" t="n">
         <v>0</v>
       </c>
       <c r="O124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P124" t="n">
         <v>2</v>
@@ -9026,6 +9522,10 @@
       </c>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9058,12 +9558,8 @@
       <c r="H125" t="n">
         <v>1</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
         <v>0</v>
       </c>
@@ -9071,16 +9567,16 @@
         <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O125" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q125" t="n">
         <v>64</v>
@@ -9095,6 +9591,10 @@
       </c>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9140,13 +9640,13 @@
         <v>1</v>
       </c>
       <c r="M126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N126" t="n">
         <v>0</v>
       </c>
       <c r="O126" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P126" t="n">
         <v>1</v>
@@ -9164,6 +9664,10 @@
       </c>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9212,13 +9716,13 @@
         <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O127" t="n">
         <v>1</v>
       </c>
       <c r="P127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q127" t="n">
         <v>49</v>
@@ -9233,6 +9737,10 @@
       </c>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9278,13 +9786,13 @@
         <v>0</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N128" t="n">
         <v>0</v>
       </c>
       <c r="O128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P128" t="n">
         <v>0</v>
@@ -9302,6 +9810,10 @@
       </c>
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9371,6 +9883,10 @@
       </c>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9419,13 +9935,13 @@
         <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O130" t="n">
         <v>1</v>
       </c>
       <c r="P130" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q130" t="n">
         <v>34</v>
@@ -9440,6 +9956,10 @@
       </c>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9488,13 +10008,13 @@
         <v>0</v>
       </c>
       <c r="N131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O131" t="n">
         <v>1</v>
       </c>
       <c r="P131" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q131" t="n">
         <v>35</v>
@@ -9509,6 +10029,10 @@
       </c>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9554,13 +10078,13 @@
         <v>0</v>
       </c>
       <c r="M132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N132" t="n">
         <v>0</v>
       </c>
       <c r="O132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P132" t="n">
         <v>0</v>
@@ -9578,6 +10102,10 @@
       </c>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9647,6 +10175,10 @@
       </c>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9716,6 +10248,10 @@
       </c>
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9761,13 +10297,13 @@
         <v>0</v>
       </c>
       <c r="M135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N135" t="n">
         <v>0</v>
       </c>
       <c r="O135" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P135" t="n">
         <v>1</v>
@@ -9785,6 +10321,371 @@
       </c>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Molde</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Ham-Kam</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>1</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1342320</v>
+      </c>
+      <c r="G136" t="n">
+        <v>10</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>54</v>
+      </c>
+      <c r="R136" t="n">
+        <v>46</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T136" t="inlineStr"/>
+      <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Bodo/Glimt</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Tromso</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>1</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1342317</v>
+      </c>
+      <c r="G137" t="n">
+        <v>12</v>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>62</v>
+      </c>
+      <c r="R137" t="n">
+        <v>38</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T137" t="inlineStr"/>
+      <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Sarpsborg 08 FF</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>3</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1342319</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2</v>
+      </c>
+      <c r="H138" t="n">
+        <v>11</v>
+      </c>
+      <c r="I138" t="n">
+        <v>3</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>3</v>
+      </c>
+      <c r="P138" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>39</v>
+      </c>
+      <c r="R138" t="n">
+        <v>61</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T138" t="inlineStr"/>
+      <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Bryne</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>KFUM Oslo</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1342318</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>45</v>
+      </c>
+      <c r="R139" t="n">
+        <v>55</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T139" t="inlineStr"/>
+      <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Sandefjord</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Viking</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1342321</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>5</v>
+      </c>
+      <c r="I140" t="n">
+        <v>2</v>
+      </c>
+      <c r="J140" t="n">
+        <v>3</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>53</v>
+      </c>
+      <c r="R140" t="n">
+        <v>47</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
